--- a/docs/database/settings.xlsx
+++ b/docs/database/settings.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="readertype" sheetId="1" r:id="rId1"/>
-    <sheet name="stafftype" sheetId="3" r:id="rId2"/>
-    <sheet name="booktype" sheetId="5" r:id="rId3"/>
+    <sheet name="readergroup" sheetId="1" r:id="rId1"/>
+    <sheet name="staffgroup" sheetId="3" r:id="rId2"/>
+    <sheet name="bookgroup" sheetId="5" r:id="rId3"/>
     <sheet name="booktags" sheetId="6" r:id="rId4"/>
     <sheet name="general" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -37,6 +37,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,107 +69,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>max_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -504,7 +504,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -512,18 +512,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +531,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -568,28 +568,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -610,34 +610,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -659,26 +659,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -699,18 +699,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/database/settings.xlsx
+++ b/docs/database/settings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="readergroup" sheetId="1" r:id="rId1"/>
@@ -69,6 +69,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,79 +97,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_borrow_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_renew_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>max_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_borrow_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_renew_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,7 +486,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -504,7 +504,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -536,15 +536,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +558,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -589,7 +589,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -603,41 +603,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -651,31 +651,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -691,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -699,15 +699,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
